--- a/Project1Rubric_Cordova.xlsx
+++ b/Project1Rubric_Cordova.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Rough Draft (30 pts)" sheetId="2" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="60">
   <si>
     <t>CATEGORY</t>
   </si>
@@ -195,6 +195,12 @@
   </si>
   <si>
     <t>Student Name:     ____Roberto Cordova____________________________________</t>
+  </si>
+  <si>
+    <t>You're apply inline styles, such as line 18: &lt;table width="750" style="border: 45px double cyan; padding:10px; background-color: darkgray" cellpadding="25" align="center"&gt;, throughout your entire document.  These should all be handled with your internal style sheet.</t>
+  </si>
+  <si>
+    <t>39/40</t>
   </si>
 </sst>
 </file>
@@ -385,10 +391,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -404,6 +406,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -748,13 +754,13 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -7765,8 +7771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F995"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7794,13 +7800,13 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -7875,7 +7881,7 @@
       <c r="D12" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="18" t="s">
         <v>4</v>
       </c>
     </row>
@@ -7889,13 +7895,13 @@
       <c r="C13" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="19"/>
+      <c r="F13" s="17"/>
     </row>
     <row r="14" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
@@ -7910,7 +7916,7 @@
       <c r="D14" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="21" t="s">
+      <c r="E14" s="19" t="s">
         <v>23</v>
       </c>
     </row>
@@ -14805,20 +14811,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E997"/>
+  <dimension ref="A1:F997"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="21.625" customWidth="1"/>
-    <col min="6" max="26" width="10.5" customWidth="1"/>
+    <col min="6" max="6" width="57" customWidth="1"/>
+    <col min="7" max="26" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="str">
-        <f>CHAR(32)</f>
-        <v xml:space="preserve"> </v>
+      <c r="A1" s="14" t="s">
+        <v>59</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -14833,13 +14841,13 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -14922,7 +14930,7 @@
       <c r="A13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="9" t="s">
@@ -14939,7 +14947,7 @@
       <c r="A14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="11" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="9" t="s">
@@ -14956,7 +14964,7 @@
       <c r="A15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -14973,7 +14981,7 @@
       <c r="A16" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="11" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="9" t="s">
@@ -14986,14 +14994,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="11" t="s">
         <v>39</v>
       </c>
       <c r="D17" s="9" t="s">
@@ -15002,15 +15010,18 @@
       <c r="E17" s="9" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F17" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>37</v>
       </c>
@@ -15019,91 +15030,91 @@
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
